--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\VN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\VN\xls2jra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>TESTCISLO</t>
-  </si>
-  <si>
     <t>421987123451</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Vitajte v našej skutočnej aplikácii!</t>
+  </si>
+  <si>
+    <t>Vaša VšZP</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,47 +385,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -29,9 +29,6 @@
     <t>421987123451</t>
   </si>
   <si>
-    <t>421987123452</t>
-  </si>
-  <si>
     <t>421987123453</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Vaša VšZP</t>
+  </si>
+  <si>
+    <t>420987123452</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,12 +385,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -400,32 +400,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -47,10 +47,10 @@
     <t>Vitajte v našej skutočnej aplikácii!</t>
   </si>
   <si>
-    <t>Vaša VšZP</t>
-  </si>
-  <si>
     <t>420987123452</t>
+  </si>
+  <si>
+    <t>TESTING</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,7 +385,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -400,7 +400,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -47,10 +47,10 @@
     <t>Vitajte v našej skutočnej aplikácii!</t>
   </si>
   <si>
-    <t>420987123452</t>
-  </si>
-  <si>
     <t>TESTING</t>
+  </si>
+  <si>
+    <t>421987123452</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,7 +385,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -400,7 +400,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -47,10 +47,10 @@
     <t>Vitajte v našej skutočnej aplikácii!</t>
   </si>
   <si>
-    <t>TESTING</t>
-  </si>
-  <si>
     <t>421987123452</t>
+  </si>
+  <si>
+    <t>TEST :)</t>
   </si>
 </sst>
 </file>
@@ -375,17 +375,18 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -400,7 +401,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -372,16 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.77734375" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -424,8 +423,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,10 +423,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>421987123451</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>TEST :)</t>
+  </si>
+  <si>
+    <t>421987123458</t>
+  </si>
+  <si>
+    <t>421987123459</t>
   </si>
 </sst>
 </file>
@@ -87,9 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,15 +436,132 @@
       <c r="A9" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2">
+        <v>421987123460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>A15+1</f>
+        <v>421987123461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f t="shared" ref="A17:A33" si="0">A16+1</f>
+        <v>421987123462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>421987123478</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
